--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200222.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200222.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200222(今天)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56413CF1-DCCB-4F29-A781-0F56DFDE09A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC748ABC-730C-411B-8B84-68FBDF9C8ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10307,15 +10307,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>省级</t>
-  </si>
-  <si>
-    <t>城市级</t>
-  </si>
-  <si>
-    <t>区县级</t>
-  </si>
-  <si>
     <t>内蒙古自治区卫生健康委员会</t>
   </si>
   <si>
@@ -10329,8 +10320,16 @@
     <t>未核查</t>
   </si>
   <si>
+    <t>省级</t>
+  </si>
+  <si>
+    <t>城市级</t>
+  </si>
+  <si>
+    <t>区县级</t>
+  </si>
+  <si>
     <t>http://wjw.nmg.gov.cn/doc/2020/02/23/293794.shtml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://wjw.nmg.gov.cn/doc/2020/02/23/293795.shtml</t>
@@ -10485,8 +10484,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察108人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察108人。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10516,8 +10514,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察109人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察109人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10546,8 +10543,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察110人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察110人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10576,8 +10572,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察111人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察111人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10606,8 +10601,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察112人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察112人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10636,8 +10630,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察113人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察113人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10666,8 +10659,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察114人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察114人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10696,8 +10688,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察115人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察115人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10726,8 +10717,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察116人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察116人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10756,8 +10746,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察117人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察117人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10786,8 +10775,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察118人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察118人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10816,8 +10804,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察119人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察119人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10846,8 +10833,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察120人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察120人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10876,8 +10862,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察121人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察121人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10906,8 +10891,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察122人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察122人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10936,8 +10920,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察123人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察123人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10966,8 +10949,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察124人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察124人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -10996,8 +10978,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察125人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察125人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11026,8 +11007,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察126人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察126人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11056,8 +11036,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察127人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察127人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11086,8 +11065,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察128人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察128人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11116,8 +11094,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察129人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察129人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11146,8 +11123,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察130人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察130人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11176,8 +11152,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察131人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察131人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11206,8 +11181,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察132人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察132人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11236,8 +11210,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察133人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察133人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11266,8 +11239,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察134人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察134人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11296,8 +11268,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察135人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察135人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11326,8 +11297,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察136人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察136人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11356,8 +11326,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察137人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察137人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11386,8 +11355,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察138人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察138人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11416,8 +11384,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察139人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察139人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11446,8 +11413,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察140人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察140人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11476,8 +11442,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察141人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察141人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11506,8 +11471,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察142人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察142人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11536,8 +11500,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察143人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察143人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11566,8 +11529,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察144人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察144人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11596,8 +11558,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察145人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察145人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11626,8 +11587,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察146人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察146人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11656,8 +11616,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察147人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察147人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11686,8 +11645,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察148人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察148人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11716,8 +11674,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察149人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察149人。</t>
   </si>
   <si>
     <t>2020年2月22日7时至23日7时内蒙古自治区新冠肺炎疫情情况 2020年2月22日7时至23日7时，内蒙古自治区报告无新增新冠肺炎确诊病例，无新增疑似病例，新增出院病例4例，排除疑似病例1例。
@@ -11746,8 +11703,7 @@
 　　8.锡林郭勒盟二连浩特市1例
 　　9.通辽市经济开发区1例
 　　重症病例3例（锡林郭勒盟锡林浩特市2例，包头市土右旗1例）；危重病例4例（包头市昆都仑区1例，锡林郭勒盟锡林浩特市1例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
-　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察150人。
-　　自治区党委、政府高度重视我区疫情防控工作，各项工作正在按照国家疫情防控工作的统一部署，紧张有序的推进落实中。（皇利华 供稿）</t>
+　　疑似病例14例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗1例、东河区1例，锡林郭勒盟多伦县1例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者408人。当日解除医学观察150人。</t>
   </si>
 </sst>
 </file>
@@ -12224,14 +12180,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" topLeftCell="R17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="26.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
@@ -12264,7 +12220,7 @@
     <col min="41" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="26.1" customHeight="1">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="15">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -12386,12 +12342,12 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="26.1" customHeight="1">
+    <row r="2" spans="1:40" ht="409.5">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>3293</v>
+        <v>3297</v>
       </c>
       <c r="C2" s="14">
         <v>43883.291666666664</v>
@@ -12425,7 +12381,7 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T2" s="15">
         <v>43884.313888888886</v>
@@ -12439,26 +12395,26 @@
       <c r="W2" s="15"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="AD2" s="15"/>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40" ht="26.1" customHeight="1">
+    <row r="3" spans="1:40" ht="409.5">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="C3" s="14">
+        <v>3298</v>
+      </c>
+      <c r="C3" s="15">
         <v>43883.291666666664</v>
       </c>
       <c r="D3" s="14">
@@ -12483,7 +12439,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T3" s="15">
         <v>43884.313888888886</v>
@@ -12495,21 +12451,21 @@
         <v>3301</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="409.5">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C4" s="14">
         <v>43883.291666608799</v>
@@ -12533,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T4" s="15">
         <v>43884.31388883102</v>
@@ -12545,23 +12501,23 @@
         <v>3302</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="409.5">
       <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C5" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C5" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D5" s="14">
@@ -12586,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T5" s="15">
         <v>43884.31388883102</v>
@@ -12598,21 +12554,21 @@
         <v>3303</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="409.5">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C6" s="14">
         <v>43883.291666608799</v>
@@ -12639,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T6" s="15">
         <v>43884.31388883102</v>
@@ -12651,23 +12607,23 @@
         <v>3304</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="409.5">
       <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="C7" s="14">
+        <v>3298</v>
+      </c>
+      <c r="C7" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D7" s="14">
@@ -12689,7 +12645,7 @@
         <v>7</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T7" s="15">
         <v>43884.31388883102</v>
@@ -12701,21 +12657,21 @@
         <v>3305</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="409.5">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C8" s="14">
         <v>43883.291666608799</v>
@@ -12742,7 +12698,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T8" s="15">
         <v>43884.31388883102</v>
@@ -12754,23 +12710,23 @@
         <v>3306</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="409.5">
       <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C9" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C9" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D9" s="14">
@@ -12795,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T9" s="15">
         <v>43884.31388883102</v>
@@ -12807,21 +12763,21 @@
         <v>3307</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="409.5">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C10" s="14">
         <v>43883.291666608799</v>
@@ -12848,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T10" s="15">
         <v>43884.31388883102</v>
@@ -12860,23 +12816,23 @@
         <v>3308</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="409.5">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="C11" s="14">
+        <v>3298</v>
+      </c>
+      <c r="C11" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D11" s="14">
@@ -12904,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T11" s="15">
         <v>43884.31388883102</v>
@@ -12916,21 +12872,21 @@
         <v>3309</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="409.5">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C12" s="14">
         <v>43883.291666608799</v>
@@ -12963,7 +12919,7 @@
         <v>2</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T12" s="15">
         <v>43884.31388883102</v>
@@ -12975,23 +12931,23 @@
         <v>3310</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="409.5">
       <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C13" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C13" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D13" s="14">
@@ -13016,7 +12972,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T13" s="15">
         <v>43884.31388883102</v>
@@ -13028,21 +12984,21 @@
         <v>3311</v>
       </c>
       <c r="AA13" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB13" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="409.5">
       <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C14" s="14">
         <v>43883.291666608799</v>
@@ -13072,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T14" s="15">
         <v>43884.31388883102</v>
@@ -13084,23 +13040,23 @@
         <v>3312</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="409.5">
       <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C15" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C15" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D15" s="14">
@@ -13119,7 +13075,7 @@
         <v>748</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T15" s="15">
         <v>43884.31388883102</v>
@@ -13131,21 +13087,21 @@
         <v>3313</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB15" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="409.5">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="C16" s="14">
         <v>43883.291666608799</v>
@@ -13169,7 +13125,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T16" s="15">
         <v>43884.31388883102</v>
@@ -13181,23 +13137,23 @@
         <v>3314</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB16" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="409.5">
       <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C17" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C17" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D17" s="14">
@@ -13222,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T17" s="15">
         <v>43884.31388883102</v>
@@ -13234,21 +13190,21 @@
         <v>3315</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="409.5">
       <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C18" s="14">
         <v>43883.291666608799</v>
@@ -13275,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T18" s="15">
         <v>43884.31388883102</v>
@@ -13287,23 +13243,23 @@
         <v>3316</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="409.5">
       <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C19" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C19" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D19" s="14">
@@ -13328,7 +13284,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T19" s="15">
         <v>43884.31388883102</v>
@@ -13340,21 +13296,21 @@
         <v>3317</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="409.5">
       <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C20" s="14">
         <v>43883.291666608799</v>
@@ -13378,7 +13334,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T20" s="15">
         <v>43884.31388883102</v>
@@ -13390,23 +13346,23 @@
         <v>3318</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="409.5">
       <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C21" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C21" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D21" s="14">
@@ -13428,7 +13384,7 @@
         <v>3</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T21" s="15">
         <v>43884.31388883102</v>
@@ -13440,21 +13396,21 @@
         <v>3319</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="409.5">
       <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="C22" s="14">
         <v>43883.291666608799</v>
@@ -13478,7 +13434,7 @@
         <v>3</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T22" s="15">
         <v>43884.31388883102</v>
@@ -13490,23 +13446,23 @@
         <v>3320</v>
       </c>
       <c r="AA22" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB22" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC22" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="409.5">
       <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C23" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C23" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D23" s="14">
@@ -13531,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T23" s="15">
         <v>43884.31388883102</v>
@@ -13543,21 +13499,21 @@
         <v>3321</v>
       </c>
       <c r="AA23" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB23" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC23" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="409.5">
       <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C24" s="14">
         <v>43883.291666608799</v>
@@ -13581,7 +13537,7 @@
         <v>2</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T24" s="15">
         <v>43884.31388883102</v>
@@ -13593,23 +13549,23 @@
         <v>3322</v>
       </c>
       <c r="AA24" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB24" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC24" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="409.5">
       <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C25" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C25" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D25" s="14">
@@ -13634,7 +13590,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T25" s="15">
         <v>43884.31388883102</v>
@@ -13646,21 +13602,21 @@
         <v>3323</v>
       </c>
       <c r="AA25" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB25" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC25" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="409.5">
       <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="C26" s="14">
         <v>43883.291666608799</v>
@@ -13687,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T26" s="15">
         <v>43884.31388883102</v>
@@ -13699,23 +13655,23 @@
         <v>3324</v>
       </c>
       <c r="AA26" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB26" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC26" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="409.5">
       <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C27" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C27" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D27" s="14">
@@ -13737,7 +13693,7 @@
         <v>4</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T27" s="15">
         <v>43884.31388883102</v>
@@ -13749,21 +13705,21 @@
         <v>3325</v>
       </c>
       <c r="AA27" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB27" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC27" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="409.5">
       <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C28" s="14">
         <v>43883.291666608799</v>
@@ -13790,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T28" s="15">
         <v>43884.31388883102</v>
@@ -13802,23 +13758,23 @@
         <v>3326</v>
       </c>
       <c r="AA28" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB28" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC28" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="409.5">
       <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C29" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C29" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D29" s="14">
@@ -13843,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T29" s="15">
         <v>43884.31388883102</v>
@@ -13855,21 +13811,21 @@
         <v>3327</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB29" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC29" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="409.5">
       <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="C30" s="14">
         <v>43883.291666608799</v>
@@ -13896,7 +13852,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T30" s="15">
         <v>43884.31388883102</v>
@@ -13908,23 +13864,23 @@
         <v>3328</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB30" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC30" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="409.5">
       <c r="A31" s="13">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C31" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C31" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D31" s="14">
@@ -13949,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T31" s="15">
         <v>43884.31388883102</v>
@@ -13961,21 +13917,21 @@
         <v>3329</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB31" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC31" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="409.5">
       <c r="A32" s="12">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C32" s="14">
         <v>43883.291666608799</v>
@@ -14002,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T32" s="15">
         <v>43884.31388883102</v>
@@ -14014,23 +13970,23 @@
         <v>3330</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB32" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC32" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="409.5">
       <c r="A33" s="13">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C33" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C33" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D33" s="14">
@@ -14055,7 +14011,7 @@
         <v>2</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T33" s="15">
         <v>43884.31388883102</v>
@@ -14067,21 +14023,21 @@
         <v>3331</v>
       </c>
       <c r="AA33" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB33" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="409.5">
       <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C34" s="14">
         <v>43883.291666608799</v>
@@ -14108,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T34" s="15">
         <v>43884.31388883102</v>
@@ -14120,23 +14076,23 @@
         <v>3332</v>
       </c>
       <c r="AA34" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB34" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="409.5">
       <c r="A35" s="13">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="C35" s="14">
+        <v>3298</v>
+      </c>
+      <c r="C35" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D35" s="14">
@@ -14164,7 +14120,7 @@
         <v>4</v>
       </c>
       <c r="S35" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T35" s="15">
         <v>43884.31388883102</v>
@@ -14176,21 +14132,21 @@
         <v>3333</v>
       </c>
       <c r="AA35" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB35" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC35" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="409.5">
       <c r="A36" s="12">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C36" s="14">
         <v>43883.291666608799</v>
@@ -14223,7 +14179,7 @@
         <v>2</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T36" s="15">
         <v>43884.31388883102</v>
@@ -14235,23 +14191,23 @@
         <v>3334</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="409.5">
       <c r="A37" s="13">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C37" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C37" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D37" s="14">
@@ -14273,7 +14229,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T37" s="15">
         <v>43884.31388883102</v>
@@ -14285,21 +14241,21 @@
         <v>3335</v>
       </c>
       <c r="AA37" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB37" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC37" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="409.5">
       <c r="A38" s="12">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C38" s="14">
         <v>43883.291666608799</v>
@@ -14326,7 +14282,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T38" s="15">
         <v>43884.31388883102</v>
@@ -14338,23 +14294,23 @@
         <v>3336</v>
       </c>
       <c r="AA38" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB38" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC38" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="409.5">
       <c r="A39" s="13">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>3295</v>
-      </c>
-      <c r="C39" s="14">
+        <v>3299</v>
+      </c>
+      <c r="C39" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D39" s="14">
@@ -14379,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T39" s="15">
         <v>43884.31388883102</v>
@@ -14391,21 +14347,21 @@
         <v>3337</v>
       </c>
       <c r="AA39" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB39" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC39" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="409.5">
       <c r="A40" s="12">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="C40" s="14">
         <v>43883.291666608799</v>
@@ -14429,7 +14385,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T40" s="15">
         <v>43884.31388883102</v>
@@ -14441,23 +14397,23 @@
         <v>3338</v>
       </c>
       <c r="AA40" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB40" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC40" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="409.5">
       <c r="A41" s="13">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="C41" s="14">
+        <v>3298</v>
+      </c>
+      <c r="C41" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D41" s="14">
@@ -14476,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T41" s="15">
         <v>43884.31388883102</v>
@@ -14488,21 +14444,21 @@
         <v>3339</v>
       </c>
       <c r="AA41" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB41" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC41" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="409.5">
       <c r="A42" s="12">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C42" s="14">
         <v>43883.291666608799</v>
@@ -14526,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T42" s="15">
         <v>43884.31388883102</v>
@@ -14538,23 +14494,23 @@
         <v>3340</v>
       </c>
       <c r="AA42" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB42" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC42" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="409.5">
       <c r="A43" s="13">
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="C43" s="14">
+        <v>3298</v>
+      </c>
+      <c r="C43" s="15">
         <v>43883.291666608799</v>
       </c>
       <c r="D43" s="14">
@@ -14573,7 +14529,7 @@
         <v>2</v>
       </c>
       <c r="S43" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T43" s="15">
         <v>43884.31388883102</v>
@@ -14585,21 +14541,21 @@
         <v>3341</v>
       </c>
       <c r="AA43" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB43" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC43" s="13" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="26.1" customHeight="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="409.5">
       <c r="A44" s="12">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C44" s="14">
         <v>43883.291666608799</v>
@@ -14623,7 +14579,7 @@
         <v>2</v>
       </c>
       <c r="S44" s="13" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="T44" s="15">
         <v>43884.31388883102</v>
@@ -14635,13 +14591,13 @@
         <v>3342</v>
       </c>
       <c r="AA44" s="13" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AB44" s="13" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AC44" s="13" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
     </row>
   </sheetData>
@@ -14670,12 +14626,8 @@
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" xr:uid="{C9F1B6D1-0B1D-4E3B-899C-964353EF488A}"/>
-    <hyperlink ref="V3:V44" r:id="rId2" display="http://wjw.nmg.gov.cn/doc/2020/02/23/293794.shtml" xr:uid="{F91A2115-1095-4EFC-A9C7-FE82E457ABAB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -14685,7 +14637,7 @@
           </x14:formula1>
           <xm:sqref>F45:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{1973793A-0DB5-4957-BAFE-A02C044D2C87}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{1C9A042E-D682-44D0-B423-4AC79EC13092}">
           <x14:formula1>
             <xm:f>[neimengguCaseStatistics_20200218.xlsx]中国各省市区县数据!#REF!</xm:f>
           </x14:formula1>

--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200222.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200222.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC748ABC-730C-411B-8B84-68FBDF9C8ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4CEA9-D900-4C92-BA9D-E4435F258BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10307,7 +10307,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>省级</t>
+  </si>
+  <si>
+    <t>城市级</t>
+  </si>
+  <si>
+    <t>区县级</t>
+  </si>
+  <si>
     <t>内蒙古自治区卫生健康委员会</t>
+  </si>
+  <si>
+    <t>http://wjw.nmg.gov.cn/doc/2020/02/23/293794.shtml</t>
   </si>
   <si>
     <t>手动</t>
@@ -10318,18 +10330,6 @@
   </si>
   <si>
     <t>未核查</t>
-  </si>
-  <si>
-    <t>省级</t>
-  </si>
-  <si>
-    <t>城市级</t>
-  </si>
-  <si>
-    <t>区县级</t>
-  </si>
-  <si>
-    <t>http://wjw.nmg.gov.cn/doc/2020/02/23/293794.shtml</t>
   </si>
   <si>
     <t>http://wjw.nmg.gov.cn/doc/2020/02/23/293795.shtml</t>
@@ -11827,7 +11827,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11880,7 +11880,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12180,7 +12180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U2" sqref="U2:U44"/>
     </sheetView>
   </sheetViews>
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>3297</v>
+        <v>3293</v>
       </c>
       <c r="C2" s="14">
         <v>43883.291666666664</v>
@@ -12381,27 +12381,27 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T2" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T2" s="14">
         <v>43884.313888888886</v>
       </c>
       <c r="U2" s="21" t="s">
         <v>3343</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="W2" s="15"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
       <c r="AD2" s="15"/>
       <c r="AI2" s="15"/>
@@ -12412,9 +12412,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>3298</v>
-      </c>
-      <c r="C3" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C3" s="14">
         <v>43883.291666666664</v>
       </c>
       <c r="D3" s="14">
@@ -12439,9 +12439,9 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T3" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T3" s="14">
         <v>43884.313888888886</v>
       </c>
       <c r="U3" s="21" t="s">
@@ -12451,13 +12451,13 @@
         <v>3301</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="409.5">
@@ -12465,7 +12465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C4" s="14">
         <v>43883.291666608799</v>
@@ -12489,9 +12489,9 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T4" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T4" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U4" s="21" t="s">
@@ -12501,13 +12501,13 @@
         <v>3302</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="409.5">
@@ -12515,9 +12515,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C5" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C5" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D5" s="14">
@@ -12542,9 +12542,9 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T5" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T5" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U5" s="21" t="s">
@@ -12554,13 +12554,13 @@
         <v>3303</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="409.5">
@@ -12568,7 +12568,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C6" s="14">
         <v>43883.291666608799</v>
@@ -12595,9 +12595,9 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T6" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T6" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U6" s="21" t="s">
@@ -12607,13 +12607,13 @@
         <v>3304</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="409.5">
@@ -12621,9 +12621,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>3298</v>
-      </c>
-      <c r="C7" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C7" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D7" s="14">
@@ -12645,9 +12645,9 @@
         <v>7</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T7" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T7" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U7" s="21" t="s">
@@ -12657,13 +12657,13 @@
         <v>3305</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="409.5">
@@ -12671,7 +12671,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C8" s="14">
         <v>43883.291666608799</v>
@@ -12698,9 +12698,9 @@
         <v>5</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T8" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T8" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U8" s="21" t="s">
@@ -12710,13 +12710,13 @@
         <v>3306</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="409.5">
@@ -12724,9 +12724,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C9" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C9" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D9" s="14">
@@ -12751,9 +12751,9 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T9" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T9" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U9" s="21" t="s">
@@ -12763,13 +12763,13 @@
         <v>3307</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="409.5">
@@ -12777,7 +12777,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C10" s="14">
         <v>43883.291666608799</v>
@@ -12804,9 +12804,9 @@
         <v>1</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T10" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T10" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U10" s="21" t="s">
@@ -12816,13 +12816,13 @@
         <v>3308</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="409.5">
@@ -12830,9 +12830,9 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>3298</v>
-      </c>
-      <c r="C11" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C11" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D11" s="14">
@@ -12860,9 +12860,9 @@
         <v>4</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T11" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T11" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U11" s="21" t="s">
@@ -12872,13 +12872,13 @@
         <v>3309</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="409.5">
@@ -12886,7 +12886,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C12" s="14">
         <v>43883.291666608799</v>
@@ -12919,9 +12919,9 @@
         <v>2</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T12" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T12" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U12" s="21" t="s">
@@ -12931,13 +12931,13 @@
         <v>3310</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="409.5">
@@ -12945,9 +12945,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C13" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C13" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D13" s="14">
@@ -12972,9 +12972,9 @@
         <v>1</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T13" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T13" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U13" s="21" t="s">
@@ -12984,13 +12984,13 @@
         <v>3311</v>
       </c>
       <c r="AA13" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB13" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="409.5">
@@ -12998,7 +12998,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C14" s="14">
         <v>43883.291666608799</v>
@@ -13028,9 +13028,9 @@
         <v>1</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T14" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T14" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U14" s="21" t="s">
@@ -13040,13 +13040,13 @@
         <v>3312</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="409.5">
@@ -13054,9 +13054,9 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C15" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C15" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D15" s="14">
@@ -13075,9 +13075,9 @@
         <v>748</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T15" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T15" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U15" s="21" t="s">
@@ -13087,13 +13087,13 @@
         <v>3313</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB15" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="409.5">
@@ -13101,7 +13101,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="C16" s="14">
         <v>43883.291666608799</v>
@@ -13125,9 +13125,9 @@
         <v>3</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T16" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T16" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U16" s="21" t="s">
@@ -13137,13 +13137,13 @@
         <v>3314</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB16" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="409.5">
@@ -13151,9 +13151,9 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C17" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C17" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D17" s="14">
@@ -13178,9 +13178,9 @@
         <v>1</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T17" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T17" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U17" s="21" t="s">
@@ -13190,13 +13190,13 @@
         <v>3315</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="409.5">
@@ -13204,7 +13204,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C18" s="14">
         <v>43883.291666608799</v>
@@ -13231,9 +13231,9 @@
         <v>1</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T18" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T18" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U18" s="21" t="s">
@@ -13243,13 +13243,13 @@
         <v>3316</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="409.5">
@@ -13257,9 +13257,9 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C19" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C19" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D19" s="14">
@@ -13284,9 +13284,9 @@
         <v>1</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T19" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T19" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U19" s="21" t="s">
@@ -13296,13 +13296,13 @@
         <v>3317</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="409.5">
@@ -13310,7 +13310,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C20" s="14">
         <v>43883.291666608799</v>
@@ -13334,9 +13334,9 @@
         <v>1</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T20" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T20" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U20" s="21" t="s">
@@ -13346,13 +13346,13 @@
         <v>3318</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="409.5">
@@ -13360,9 +13360,9 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C21" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C21" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D21" s="14">
@@ -13384,9 +13384,9 @@
         <v>3</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T21" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T21" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U21" s="21" t="s">
@@ -13396,13 +13396,13 @@
         <v>3319</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="409.5">
@@ -13410,7 +13410,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="C22" s="14">
         <v>43883.291666608799</v>
@@ -13434,9 +13434,9 @@
         <v>3</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T22" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T22" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U22" s="21" t="s">
@@ -13446,13 +13446,13 @@
         <v>3320</v>
       </c>
       <c r="AA22" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB22" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC22" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="409.5">
@@ -13460,9 +13460,9 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C23" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C23" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D23" s="14">
@@ -13487,9 +13487,9 @@
         <v>1</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T23" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T23" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U23" s="21" t="s">
@@ -13499,13 +13499,13 @@
         <v>3321</v>
       </c>
       <c r="AA23" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB23" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC23" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="409.5">
@@ -13513,7 +13513,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C24" s="14">
         <v>43883.291666608799</v>
@@ -13537,9 +13537,9 @@
         <v>2</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T24" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T24" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U24" s="21" t="s">
@@ -13549,13 +13549,13 @@
         <v>3322</v>
       </c>
       <c r="AA24" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB24" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC24" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="409.5">
@@ -13563,9 +13563,9 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C25" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C25" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D25" s="14">
@@ -13590,9 +13590,9 @@
         <v>2</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T25" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T25" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U25" s="21" t="s">
@@ -13602,13 +13602,13 @@
         <v>3323</v>
       </c>
       <c r="AA25" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB25" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC25" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="409.5">
@@ -13616,7 +13616,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="C26" s="14">
         <v>43883.291666608799</v>
@@ -13643,9 +13643,9 @@
         <v>1</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T26" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T26" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U26" s="21" t="s">
@@ -13655,13 +13655,13 @@
         <v>3324</v>
       </c>
       <c r="AA26" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB26" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC26" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="409.5">
@@ -13669,9 +13669,9 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C27" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C27" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D27" s="14">
@@ -13693,9 +13693,9 @@
         <v>4</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T27" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T27" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U27" s="21" t="s">
@@ -13705,13 +13705,13 @@
         <v>3325</v>
       </c>
       <c r="AA27" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB27" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC27" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="409.5">
@@ -13719,7 +13719,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C28" s="14">
         <v>43883.291666608799</v>
@@ -13746,9 +13746,9 @@
         <v>1</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T28" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T28" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U28" s="21" t="s">
@@ -13758,13 +13758,13 @@
         <v>3326</v>
       </c>
       <c r="AA28" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB28" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC28" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="409.5">
@@ -13772,9 +13772,9 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C29" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C29" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D29" s="14">
@@ -13799,9 +13799,9 @@
         <v>1</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T29" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T29" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U29" s="21" t="s">
@@ -13811,13 +13811,13 @@
         <v>3327</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB29" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC29" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="409.5">
@@ -13825,7 +13825,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="C30" s="14">
         <v>43883.291666608799</v>
@@ -13852,9 +13852,9 @@
         <v>2</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T30" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T30" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U30" s="21" t="s">
@@ -13864,13 +13864,13 @@
         <v>3328</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB30" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC30" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="409.5">
@@ -13878,9 +13878,9 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C31" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C31" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D31" s="14">
@@ -13905,9 +13905,9 @@
         <v>1</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T31" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T31" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U31" s="21" t="s">
@@ -13917,13 +13917,13 @@
         <v>3329</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB31" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC31" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="409.5">
@@ -13931,7 +13931,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C32" s="14">
         <v>43883.291666608799</v>
@@ -13958,9 +13958,9 @@
         <v>1</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T32" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T32" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U32" s="21" t="s">
@@ -13970,13 +13970,13 @@
         <v>3330</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB32" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC32" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="409.5">
@@ -13984,9 +13984,9 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C33" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C33" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D33" s="14">
@@ -14011,9 +14011,9 @@
         <v>2</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T33" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T33" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U33" s="21" t="s">
@@ -14023,13 +14023,13 @@
         <v>3331</v>
       </c>
       <c r="AA33" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB33" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="409.5">
@@ -14037,7 +14037,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C34" s="14">
         <v>43883.291666608799</v>
@@ -14064,9 +14064,9 @@
         <v>1</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T34" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T34" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U34" s="21" t="s">
@@ -14076,13 +14076,13 @@
         <v>3332</v>
       </c>
       <c r="AA34" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB34" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="409.5">
@@ -14090,9 +14090,9 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>3298</v>
-      </c>
-      <c r="C35" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C35" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D35" s="14">
@@ -14120,9 +14120,9 @@
         <v>4</v>
       </c>
       <c r="S35" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T35" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T35" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U35" s="21" t="s">
@@ -14132,13 +14132,13 @@
         <v>3333</v>
       </c>
       <c r="AA35" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB35" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC35" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="409.5">
@@ -14146,7 +14146,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C36" s="14">
         <v>43883.291666608799</v>
@@ -14179,9 +14179,9 @@
         <v>2</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T36" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T36" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U36" s="21" t="s">
@@ -14191,13 +14191,13 @@
         <v>3334</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="409.5">
@@ -14205,9 +14205,9 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C37" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C37" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D37" s="14">
@@ -14229,9 +14229,9 @@
         <v>1</v>
       </c>
       <c r="S37" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T37" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T37" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U37" s="21" t="s">
@@ -14241,13 +14241,13 @@
         <v>3335</v>
       </c>
       <c r="AA37" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB37" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC37" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="409.5">
@@ -14255,7 +14255,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C38" s="14">
         <v>43883.291666608799</v>
@@ -14282,9 +14282,9 @@
         <v>1</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T38" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T38" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U38" s="21" t="s">
@@ -14294,13 +14294,13 @@
         <v>3336</v>
       </c>
       <c r="AA38" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB38" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC38" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="409.5">
@@ -14308,9 +14308,9 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C39" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C39" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D39" s="14">
@@ -14335,9 +14335,9 @@
         <v>1</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T39" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T39" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U39" s="21" t="s">
@@ -14347,13 +14347,13 @@
         <v>3337</v>
       </c>
       <c r="AA39" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB39" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC39" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="409.5">
@@ -14361,7 +14361,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="C40" s="14">
         <v>43883.291666608799</v>
@@ -14385,9 +14385,9 @@
         <v>1</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T40" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T40" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U40" s="21" t="s">
@@ -14397,13 +14397,13 @@
         <v>3338</v>
       </c>
       <c r="AA40" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB40" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC40" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="409.5">
@@ -14411,9 +14411,9 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>3298</v>
-      </c>
-      <c r="C41" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C41" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D41" s="14">
@@ -14432,9 +14432,9 @@
         <v>1</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T41" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T41" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U41" s="21" t="s">
@@ -14444,13 +14444,13 @@
         <v>3339</v>
       </c>
       <c r="AA41" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB41" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC41" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="409.5">
@@ -14458,7 +14458,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C42" s="14">
         <v>43883.291666608799</v>
@@ -14482,9 +14482,9 @@
         <v>1</v>
       </c>
       <c r="S42" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T42" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T42" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U42" s="21" t="s">
@@ -14494,13 +14494,13 @@
         <v>3340</v>
       </c>
       <c r="AA42" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB42" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC42" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="409.5">
@@ -14508,9 +14508,9 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>3298</v>
-      </c>
-      <c r="C43" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C43" s="14">
         <v>43883.291666608799</v>
       </c>
       <c r="D43" s="14">
@@ -14529,9 +14529,9 @@
         <v>2</v>
       </c>
       <c r="S43" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T43" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T43" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U43" s="21" t="s">
@@ -14541,13 +14541,13 @@
         <v>3341</v>
       </c>
       <c r="AA43" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB43" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC43" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="409.5">
@@ -14555,7 +14555,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C44" s="14">
         <v>43883.291666608799</v>
@@ -14579,9 +14579,9 @@
         <v>2</v>
       </c>
       <c r="S44" s="13" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T44" s="15">
+        <v>3296</v>
+      </c>
+      <c r="T44" s="14">
         <v>43884.31388883102</v>
       </c>
       <c r="U44" s="21" t="s">
@@ -14591,13 +14591,13 @@
         <v>3342</v>
       </c>
       <c r="AA44" s="13" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="AB44" s="13" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="AC44" s="13" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
   </sheetData>
@@ -14627,7 +14627,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -14637,7 +14636,7 @@
           </x14:formula1>
           <xm:sqref>F45:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{1C9A042E-D682-44D0-B423-4AC79EC13092}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{B0D28F07-5235-4B2B-B8F2-FBAC99B5E579}">
           <x14:formula1>
             <xm:f>[neimengguCaseStatistics_20200218.xlsx]中国各省市区县数据!#REF!</xm:f>
           </x14:formula1>

--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200222.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200222.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200222(今天)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4CEA9-D900-4C92-BA9D-E4435F258BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD629426-C77E-47CB-92C7-D5F7EB31D021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12180,8 +12180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -12350,10 +12350,10 @@
         <v>3293</v>
       </c>
       <c r="C2" s="14">
-        <v>43883.291666666664</v>
+        <v>43883</v>
       </c>
       <c r="D2" s="14">
-        <v>43884.291666666664</v>
+        <v>43884</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>3285</v>
@@ -12384,7 +12384,7 @@
         <v>3296</v>
       </c>
       <c r="T2" s="14">
-        <v>43884.313888888886</v>
+        <v>43884</v>
       </c>
       <c r="U2" s="21" t="s">
         <v>3343</v>
@@ -12415,10 +12415,10 @@
         <v>3294</v>
       </c>
       <c r="C3" s="14">
-        <v>43883.291666666664</v>
+        <v>43883</v>
       </c>
       <c r="D3" s="14">
-        <v>43884.291666666664</v>
+        <v>43884</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3285</v>
@@ -12442,7 +12442,7 @@
         <v>3296</v>
       </c>
       <c r="T3" s="14">
-        <v>43884.313888888886</v>
+        <v>43884</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>3344</v>
@@ -12468,10 +12468,10 @@
         <v>3295</v>
       </c>
       <c r="C4" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D4" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>3285</v>
@@ -12492,7 +12492,7 @@
         <v>3296</v>
       </c>
       <c r="T4" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>3345</v>
@@ -12518,10 +12518,10 @@
         <v>3295</v>
       </c>
       <c r="C5" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D5" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>3285</v>
@@ -12545,7 +12545,7 @@
         <v>3296</v>
       </c>
       <c r="T5" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U5" s="21" t="s">
         <v>3346</v>
@@ -12571,10 +12571,10 @@
         <v>3295</v>
       </c>
       <c r="C6" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D6" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>3285</v>
@@ -12598,7 +12598,7 @@
         <v>3296</v>
       </c>
       <c r="T6" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U6" s="21" t="s">
         <v>3347</v>
@@ -12624,10 +12624,10 @@
         <v>3294</v>
       </c>
       <c r="C7" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D7" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>3285</v>
@@ -12648,7 +12648,7 @@
         <v>3296</v>
       </c>
       <c r="T7" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U7" s="21" t="s">
         <v>3348</v>
@@ -12674,10 +12674,10 @@
         <v>3295</v>
       </c>
       <c r="C8" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D8" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>3285</v>
@@ -12701,7 +12701,7 @@
         <v>3296</v>
       </c>
       <c r="T8" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U8" s="21" t="s">
         <v>3349</v>
@@ -12727,10 +12727,10 @@
         <v>3295</v>
       </c>
       <c r="C9" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D9" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>3285</v>
@@ -12754,7 +12754,7 @@
         <v>3296</v>
       </c>
       <c r="T9" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U9" s="21" t="s">
         <v>3350</v>
@@ -12780,10 +12780,10 @@
         <v>3295</v>
       </c>
       <c r="C10" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D10" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>3285</v>
@@ -12807,7 +12807,7 @@
         <v>3296</v>
       </c>
       <c r="T10" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U10" s="21" t="s">
         <v>3351</v>
@@ -12833,10 +12833,10 @@
         <v>3294</v>
       </c>
       <c r="C11" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D11" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>3285</v>
@@ -12863,7 +12863,7 @@
         <v>3296</v>
       </c>
       <c r="T11" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U11" s="21" t="s">
         <v>3352</v>
@@ -12889,10 +12889,10 @@
         <v>3295</v>
       </c>
       <c r="C12" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D12" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>3285</v>
@@ -12922,7 +12922,7 @@
         <v>3296</v>
       </c>
       <c r="T12" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U12" s="21" t="s">
         <v>3353</v>
@@ -12948,10 +12948,10 @@
         <v>3295</v>
       </c>
       <c r="C13" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D13" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>3285</v>
@@ -12975,7 +12975,7 @@
         <v>3296</v>
       </c>
       <c r="T13" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U13" s="21" t="s">
         <v>3354</v>
@@ -13001,10 +13001,10 @@
         <v>3295</v>
       </c>
       <c r="C14" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D14" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>3285</v>
@@ -13031,7 +13031,7 @@
         <v>3296</v>
       </c>
       <c r="T14" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U14" s="21" t="s">
         <v>3355</v>
@@ -13057,10 +13057,10 @@
         <v>3295</v>
       </c>
       <c r="C15" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D15" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>3285</v>
@@ -13078,7 +13078,7 @@
         <v>3296</v>
       </c>
       <c r="T15" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U15" s="21" t="s">
         <v>3356</v>
@@ -13104,10 +13104,10 @@
         <v>3294</v>
       </c>
       <c r="C16" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D16" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>3285</v>
@@ -13128,7 +13128,7 @@
         <v>3296</v>
       </c>
       <c r="T16" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U16" s="21" t="s">
         <v>3357</v>
@@ -13154,10 +13154,10 @@
         <v>3295</v>
       </c>
       <c r="C17" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D17" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>3285</v>
@@ -13181,7 +13181,7 @@
         <v>3296</v>
       </c>
       <c r="T17" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U17" s="21" t="s">
         <v>3358</v>
@@ -13207,10 +13207,10 @@
         <v>3295</v>
       </c>
       <c r="C18" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D18" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>3285</v>
@@ -13234,7 +13234,7 @@
         <v>3296</v>
       </c>
       <c r="T18" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U18" s="21" t="s">
         <v>3359</v>
@@ -13260,10 +13260,10 @@
         <v>3295</v>
       </c>
       <c r="C19" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D19" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>3285</v>
@@ -13287,7 +13287,7 @@
         <v>3296</v>
       </c>
       <c r="T19" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U19" s="21" t="s">
         <v>3360</v>
@@ -13313,10 +13313,10 @@
         <v>3295</v>
       </c>
       <c r="C20" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D20" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>3285</v>
@@ -13337,7 +13337,7 @@
         <v>3296</v>
       </c>
       <c r="T20" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U20" s="21" t="s">
         <v>3361</v>
@@ -13363,10 +13363,10 @@
         <v>3295</v>
       </c>
       <c r="C21" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D21" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>3285</v>
@@ -13387,7 +13387,7 @@
         <v>3296</v>
       </c>
       <c r="T21" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U21" s="21" t="s">
         <v>3362</v>
@@ -13413,10 +13413,10 @@
         <v>3294</v>
       </c>
       <c r="C22" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D22" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>3285</v>
@@ -13437,7 +13437,7 @@
         <v>3296</v>
       </c>
       <c r="T22" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U22" s="21" t="s">
         <v>3363</v>
@@ -13463,10 +13463,10 @@
         <v>3295</v>
       </c>
       <c r="C23" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D23" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>3285</v>
@@ -13490,7 +13490,7 @@
         <v>3296</v>
       </c>
       <c r="T23" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U23" s="21" t="s">
         <v>3364</v>
@@ -13516,10 +13516,10 @@
         <v>3295</v>
       </c>
       <c r="C24" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D24" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>3285</v>
@@ -13540,7 +13540,7 @@
         <v>3296</v>
       </c>
       <c r="T24" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U24" s="21" t="s">
         <v>3365</v>
@@ -13566,10 +13566,10 @@
         <v>3295</v>
       </c>
       <c r="C25" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D25" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>3285</v>
@@ -13593,7 +13593,7 @@
         <v>3296</v>
       </c>
       <c r="T25" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U25" s="21" t="s">
         <v>3366</v>
@@ -13619,10 +13619,10 @@
         <v>3294</v>
       </c>
       <c r="C26" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D26" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>3285</v>
@@ -13646,7 +13646,7 @@
         <v>3296</v>
       </c>
       <c r="T26" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U26" s="21" t="s">
         <v>3367</v>
@@ -13672,10 +13672,10 @@
         <v>3295</v>
       </c>
       <c r="C27" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D27" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>3285</v>
@@ -13696,7 +13696,7 @@
         <v>3296</v>
       </c>
       <c r="T27" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U27" s="21" t="s">
         <v>3368</v>
@@ -13722,10 +13722,10 @@
         <v>3295</v>
       </c>
       <c r="C28" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D28" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>3285</v>
@@ -13749,7 +13749,7 @@
         <v>3296</v>
       </c>
       <c r="T28" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U28" s="21" t="s">
         <v>3369</v>
@@ -13775,10 +13775,10 @@
         <v>3295</v>
       </c>
       <c r="C29" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D29" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>3285</v>
@@ -13802,7 +13802,7 @@
         <v>3296</v>
       </c>
       <c r="T29" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U29" s="21" t="s">
         <v>3370</v>
@@ -13828,10 +13828,10 @@
         <v>3294</v>
       </c>
       <c r="C30" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D30" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>3285</v>
@@ -13855,7 +13855,7 @@
         <v>3296</v>
       </c>
       <c r="T30" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U30" s="21" t="s">
         <v>3371</v>
@@ -13881,10 +13881,10 @@
         <v>3295</v>
       </c>
       <c r="C31" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D31" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>3285</v>
@@ -13908,7 +13908,7 @@
         <v>3296</v>
       </c>
       <c r="T31" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U31" s="21" t="s">
         <v>3372</v>
@@ -13934,10 +13934,10 @@
         <v>3295</v>
       </c>
       <c r="C32" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D32" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>3285</v>
@@ -13961,7 +13961,7 @@
         <v>3296</v>
       </c>
       <c r="T32" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U32" s="21" t="s">
         <v>3373</v>
@@ -13987,10 +13987,10 @@
         <v>3295</v>
       </c>
       <c r="C33" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D33" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>3285</v>
@@ -14014,7 +14014,7 @@
         <v>3296</v>
       </c>
       <c r="T33" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U33" s="21" t="s">
         <v>3374</v>
@@ -14040,10 +14040,10 @@
         <v>3295</v>
       </c>
       <c r="C34" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D34" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>3285</v>
@@ -14067,7 +14067,7 @@
         <v>3296</v>
       </c>
       <c r="T34" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U34" s="21" t="s">
         <v>3375</v>
@@ -14093,10 +14093,10 @@
         <v>3294</v>
       </c>
       <c r="C35" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D35" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>3285</v>
@@ -14123,7 +14123,7 @@
         <v>3296</v>
       </c>
       <c r="T35" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U35" s="21" t="s">
         <v>3376</v>
@@ -14149,10 +14149,10 @@
         <v>3295</v>
       </c>
       <c r="C36" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D36" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>3285</v>
@@ -14182,7 +14182,7 @@
         <v>3296</v>
       </c>
       <c r="T36" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U36" s="21" t="s">
         <v>3377</v>
@@ -14208,10 +14208,10 @@
         <v>3295</v>
       </c>
       <c r="C37" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D37" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>3285</v>
@@ -14232,7 +14232,7 @@
         <v>3296</v>
       </c>
       <c r="T37" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U37" s="21" t="s">
         <v>3378</v>
@@ -14258,10 +14258,10 @@
         <v>3295</v>
       </c>
       <c r="C38" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D38" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>3285</v>
@@ -14285,7 +14285,7 @@
         <v>3296</v>
       </c>
       <c r="T38" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U38" s="21" t="s">
         <v>3379</v>
@@ -14311,10 +14311,10 @@
         <v>3295</v>
       </c>
       <c r="C39" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D39" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>3285</v>
@@ -14338,7 +14338,7 @@
         <v>3296</v>
       </c>
       <c r="T39" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U39" s="21" t="s">
         <v>3380</v>
@@ -14364,10 +14364,10 @@
         <v>3294</v>
       </c>
       <c r="C40" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D40" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>3285</v>
@@ -14388,7 +14388,7 @@
         <v>3296</v>
       </c>
       <c r="T40" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U40" s="21" t="s">
         <v>3381</v>
@@ -14414,10 +14414,10 @@
         <v>3294</v>
       </c>
       <c r="C41" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D41" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>3285</v>
@@ -14435,7 +14435,7 @@
         <v>3296</v>
       </c>
       <c r="T41" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U41" s="21" t="s">
         <v>3382</v>
@@ -14461,10 +14461,10 @@
         <v>3295</v>
       </c>
       <c r="C42" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D42" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>3285</v>
@@ -14485,7 +14485,7 @@
         <v>3296</v>
       </c>
       <c r="T42" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U42" s="21" t="s">
         <v>3383</v>
@@ -14511,10 +14511,10 @@
         <v>3294</v>
       </c>
       <c r="C43" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D43" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>3285</v>
@@ -14532,7 +14532,7 @@
         <v>3296</v>
       </c>
       <c r="T43" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U43" s="21" t="s">
         <v>3384</v>
@@ -14558,10 +14558,10 @@
         <v>3295</v>
       </c>
       <c r="C44" s="14">
-        <v>43883.291666608799</v>
+        <v>43883</v>
       </c>
       <c r="D44" s="14">
-        <v>43884.291666608799</v>
+        <v>43884</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>3285</v>
@@ -14582,7 +14582,7 @@
         <v>3296</v>
       </c>
       <c r="T44" s="14">
-        <v>43884.31388883102</v>
+        <v>43884</v>
       </c>
       <c r="U44" s="21" t="s">
         <v>3385</v>
@@ -14627,6 +14627,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
